--- a/JP (Exclude Game)/Dialog/Drama/ashland.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/ashland.xlsx
@@ -520,12 +520,12 @@
   <si>
     <t xml:space="preserve">採取など特定の行動は君のスタミナを消費する。疲労がたまっていくと自然治癒が止まり、そのまま動き続けると気を失ってしまう危険もある。
 疲労を回復する手段は少ないので、体力がついていないうちは注意が必要だ。
-歩けないほど疲れてしまった時は、ベッドで一晩眠れば疲れもとれるだろう。もしベッドが見つからないなら、瞑想でもしてみるといい。</t>
+歩けないほど疲れてしまった時は、ベッドで一晩眠れば疲れもとれるだろう。もしベッドが見つからないなら、「休憩」のアビリティを使ってみると良い。</t>
   </si>
   <si>
     <t xml:space="preserve">Certain activities, such as collecting, consume your stamina. Natural healing stops as your fatigue build up, and there is a risk of fainting if you keep moving.
 There are only few ways to recover from fatigue, so be careful when you are not strong enough.
-If you are too tired to walk, a night's sleep in bed will relieve the fatigue. If you cannot find a bed, try meditating.</t>
+If you are too tired to walk, a night's sleep in bed will relieve the fatigue. If you cannot find a bed, try using "Rest" ability.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;,tutorial1,3</t>
@@ -1812,9 +1812,9 @@
   <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J279" activeCellId="0" sqref="J279"/>
+      <selection pane="bottomLeft" activeCell="J98" activeCellId="0" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/JP (Exclude Game)/Dialog/Drama/ashland.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/ashland.xlsx
@@ -1035,12 +1035,10 @@
     <t xml:space="preserve">quest_crafter</t>
   </si>
   <si>
-    <t xml:space="preserve">クラフトは生活にも冒険にも欠かせない技術だ。目標はこの土地に家を一軒建設することだが、その前に基礎的な知識を学んでおく必要があるだろう。
-専門ではないが、私が知っていることを君に教えよう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crafting is an essential skill for life and adventure. Your goal is to build a house on this land, but you will need to learn the basics first.
-I am not a specialist, but I will share with you what I know of craftsmanship.</t>
+    <t xml:space="preserve">クラフトは生活にも冒険にも欠かせない技術だ。専門分野ではないが、私が知っていることを君に教えよう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crafting is an essential skill for life and adventure. I am not a specialist, but I will share with you what I know of craftsmanship.</t>
   </si>
   <si>
     <t xml:space="preserve">そうだな、まずは作業台を作ることから始めるか。作業台はクラフトの基本となる設備で、作業台を使えば即席の床や壁をクラフトすることもできる。
@@ -1051,10 +1049,10 @@
 You can create a workbench on the spot using the "Quick Craft" ability you already know. First, gather logs by chopping down nearby trees, and then use "Quick Craft" to make the workbench.</t>
   </si>
   <si>
-    <t xml:space="preserve">そうそう、作業台は地面に置かないと使えないから、完成したら適当な場所に設置するんだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ah yes, remember that the workbench needs to be placed on the ground to be used. Make sure to set it up in a suitable location once it's completed.</t>
+    <t xml:space="preserve">そうそう、完成した作業台は適当な地面に設置するんだぞ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be sure to set the completed workbench on an appropriate ground.</t>
   </si>
   <si>
     <t xml:space="preserve">crafter</t>
@@ -1444,7 +1442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1501,6 +1499,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1566,7 +1571,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1595,11 +1600,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1607,7 +1612,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1812,9 +1821,9 @@
   <dimension ref="A1:L372"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J98" activeCellId="0" sqref="J98"/>
+      <selection pane="bottomLeft" activeCell="K272" activeCellId="0" sqref="K272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3646,7 +3655,7 @@
       <c r="J273" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K273" s="1" t="s">
+      <c r="K273" s="7" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4020,7 +4029,7 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F340" s="7"/>
+      <c r="F340" s="8"/>
     </row>
     <row r="341" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I341" s="1" t="n">
@@ -4093,7 +4102,7 @@
       <c r="E347" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F347" s="8" t="s">
+      <c r="F347" s="9" t="s">
         <v>340</v>
       </c>
       <c r="J347" s="5"/>
@@ -4234,7 +4243,7 @@
       <c r="I358" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="J358" s="9" t="s">
+      <c r="J358" s="10" t="s">
         <v>356</v>
       </c>
       <c r="K358" s="1" t="s">
@@ -4273,7 +4282,7 @@
       <c r="I361" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="J361" s="10" t="s">
+      <c r="J361" s="11" t="s">
         <v>362</v>
       </c>
       <c r="K361" s="4" t="s">

--- a/JP (Exclude Game)/Dialog/Drama/ashland.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/ashland.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="367">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -70,6 +70,12 @@
     <t xml:space="preserve">ash</t>
   </si>
   <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival</t>
+  </si>
+  <si>
     <t xml:space="preserve">start_FirstMeet</t>
   </si>
   <si>
@@ -80,9 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">=,*main,AfterReadDeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
   </si>
   <si>
     <t xml:space="preserve">&gt;=,*main,AfterAshLeaveHome</t>
@@ -1818,12 +1821,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L372"/>
+  <dimension ref="A1:L373"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K272" activeCellId="0" sqref="K272"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1918,144 +1921,147 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1" t="n">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="J17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="s">
+      <c r="K17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="1" t="n">
+    </row>
+    <row r="18" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="s">
+      <c r="K18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>35</v>
-      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="1" t="n">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2064,350 +2070,338 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="1" t="n">
+      <c r="F30" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="1" t="s">
+      <c r="K31" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="1" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="1" t="n">
+      <c r="E34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="J37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="103.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I50" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="103.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K50" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="1" t="n">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I55" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="J55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K54" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I59" s="1" t="n">
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K59" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I62" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I64" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>100</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,177 +2409,177 @@
         <v>13</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="1" t="n">
+      <c r="A73" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I74" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K73" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I74" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I75" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I76" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I77" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I79" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>13</v>
+        <v>131</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,520 +2587,532 @@
         <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I87" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I88" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I93" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I94" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K100" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I106" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I111" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C116" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I117" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I123" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I135" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I139" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I143" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I144" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K144" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I145" s="1" t="n">
         <v>49</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="J145" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I149" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I133" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I134" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="J134" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K134" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I138" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="J138" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I142" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="J142" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K142" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I143" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I144" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I148" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K148" s="4" t="s">
+      <c r="J149" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I149" s="1" t="n">
+      <c r="K149" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I150" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="J149" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K149" s="4" t="s">
+      <c r="J150" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="1" t="n">
+      <c r="K150" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I151" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K150" s="4" t="s">
+      <c r="J151" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I156" s="1" t="n">
+      <c r="K151" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I157" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K156" s="4" t="s">
+      <c r="J157" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I157" s="1" t="n">
+      <c r="K157" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I158" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="J157" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K157" s="4" t="s">
+      <c r="J158" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I162" s="1" t="n">
+      <c r="K158" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I163" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J163" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I163" s="1" t="n">
+      <c r="K163" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I164" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="J163" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="K163" s="1" t="s">
+      <c r="J164" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
+      <c r="K164" s="1" t="s">
         <v>190</v>
       </c>
     </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="1" t="s">
+      <c r="A172" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E173" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3115,399 +3121,396 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E175" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I182" s="1" t="n">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I183" s="1" t="n">
         <v>57</v>
-      </c>
-      <c r="J182" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I183" s="1" t="n">
-        <v>58</v>
       </c>
       <c r="J183" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="1" t="s">
+    <row r="184" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I184" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="J184" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I188" s="1" t="n">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E186" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I189" s="1" t="n">
         <v>59</v>
-      </c>
-      <c r="J188" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="1" t="n">
-        <v>60</v>
       </c>
       <c r="J189" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="1" t="s">
-        <v>194</v>
+    <row r="190" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I190" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I192" s="1" t="n">
+      <c r="E191" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I193" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="J192" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="1" t="s">
+      <c r="J193" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J198" s="1" t="s">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E195" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>207</v>
+      <c r="J199" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E200" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J204" s="1" t="s">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E201" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
+      <c r="J205" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I208" s="1" t="n">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E206" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I209" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="J208" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K208" s="6" t="s">
+      <c r="J209" s="4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I209" s="1" t="n">
+      <c r="K209" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I210" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="J209" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K209" s="1" t="s">
+      <c r="J210" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F210" s="1" t="s">
+      <c r="K210" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E211" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I215" s="1" t="n">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E212" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I216" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="J215" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="K215" s="4" t="s">
+      <c r="J216" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="216" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I216" s="1" t="n">
+      <c r="K216" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I217" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="J216" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K216" s="4" t="s">
+      <c r="J217" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I217" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="J217" s="1" t="s">
+      <c r="K217" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="K217" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I218" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I219" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="J218" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K218" s="1" t="s">
+      <c r="J219" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="1" t="s">
-        <v>194</v>
+      <c r="K219" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
-        <v>225</v>
+      <c r="E220" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I222" s="1" t="n">
+      <c r="A221" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E222" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I223" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="J222" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="K222" s="4" t="s">
+      <c r="J223" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="1" t="s">
-        <v>194</v>
+      <c r="K223" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I226" s="1" t="n">
+      <c r="E224" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I227" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="J226" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="K226" s="4" t="s">
+      <c r="J227" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="227" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I227" s="1" t="n">
+      <c r="K227" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I228" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="J227" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K227" s="4" t="s">
+      <c r="J228" s="4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="228" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I228" s="1" t="n">
+      <c r="K228" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I229" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="J228" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K228" s="4" t="s">
+      <c r="J229" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F229" s="1" t="s">
+      <c r="K229" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E230" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F230" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J234" s="1" t="s">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E231" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E235" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
+      <c r="J235" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I239" s="1" t="n">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E236" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I240" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="J239" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="K239" s="4" t="s">
+      <c r="J240" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F240" s="1" t="s">
+      <c r="K240" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="1" t="n">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E241" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I242" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="J241" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="K241" s="4" t="s">
+      <c r="J242" s="4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F242" s="1" t="s">
+      <c r="K242" s="4" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E243" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>245</v>
       </c>
     </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E244" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="1" t="s">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E248" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G247" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I248" s="1" t="n">
+      <c r="G248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I249" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="J248" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K248" s="4" t="s">
+      <c r="J249" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E249" s="1" t="s">
+      <c r="K249" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E250" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F250" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,7 +3518,7 @@
         <v>252</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,305 +3526,305 @@
         <v>253</v>
       </c>
       <c r="F252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E253" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="253" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I253" s="1" t="n">
+      <c r="F253" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I254" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="J253" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K253" s="4" t="s">
+      <c r="J254" s="4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I254" s="1" t="n">
+      <c r="K254" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I255" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="J254" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K254" s="1" t="s">
+      <c r="J255" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="255" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I255" s="1" t="n">
+      <c r="K255" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I256" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="J255" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K255" s="4" t="s">
+      <c r="J256" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="256" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I256" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="J256" s="4" t="s">
+      <c r="K256" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="K256" s="4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I257" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="J257" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K257" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I258" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="J257" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="K257" s="4" t="s">
+      <c r="J258" s="4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="258" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I258" s="1" t="n">
+      <c r="K258" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I259" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="J258" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K258" s="4" t="s">
+      <c r="J259" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="260" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I260" s="1" t="n">
+      <c r="K259" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I261" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J261" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="1" t="s">
-        <v>205</v>
+      <c r="K261" s="4" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E264" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E265" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F265" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I271" s="1" t="n">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E266" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I272" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="J271" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="K271" s="4" t="s">
+      <c r="J272" s="4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="272" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I272" s="1" t="n">
+      <c r="K272" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I273" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="J272" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="K272" s="4" t="s">
+      <c r="J273" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I273" s="1" t="n">
+      <c r="K273" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I274" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="J273" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="K273" s="7" t="s">
+      <c r="J274" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E274" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F274" s="1" t="s">
+      <c r="K274" s="7" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E275" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F275" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I279" s="1" t="n">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E276" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I280" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="J279" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="K279" s="4" t="s">
+      <c r="J280" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="280" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I280" s="1" t="n">
+      <c r="K280" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I281" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="J280" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="K280" s="4" t="s">
+      <c r="J281" s="4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I281" s="1" t="n">
+      <c r="K281" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I282" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="J281" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K281" s="1" t="s">
+      <c r="J282" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E282" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
+      <c r="K282" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I286" s="1" t="n">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E283" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I287" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="J286" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K286" s="1" t="s">
+      <c r="J287" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="287" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I287" s="1" t="n">
+      <c r="K287" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I288" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="J287" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="K287" s="4" t="s">
+      <c r="J288" s="4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E288" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
+      <c r="K288" s="4" t="s">
         <v>290</v>
       </c>
     </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E289" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I291" s="1" t="n">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I292" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="J291" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="K291" s="1" t="s">
+      <c r="J292" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="292" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I292" s="1" t="n">
+      <c r="K292" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I293" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="J292" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K292" s="4" t="s">
+      <c r="J293" s="4" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E293" s="1" t="s">
-        <v>205</v>
+      <c r="K293" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E294" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I298" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="J298" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E295" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="K298" s="4" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I299" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="J299" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="K299" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I300" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="J299" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="K299" s="4" t="s">
+      <c r="J300" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E300" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F300" s="1" t="s">
+      <c r="K300" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E301" s="1" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>301</v>
@@ -3829,156 +3832,156 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E302" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F302" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I305" s="1" t="n">
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E303" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I306" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="J305" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="K305" s="4" t="s">
+      <c r="J306" s="4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I306" s="1" t="n">
+      <c r="K306" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I307" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="J306" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="K306" s="4" t="s">
+      <c r="J307" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E307" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F307" s="1" t="s">
+      <c r="K307" s="4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E308" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F308" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I311" s="1" t="n">
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E309" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I312" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="K311" s="4" t="s">
+      <c r="J312" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I312" s="1" t="n">
+      <c r="K312" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I313" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="J312" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="K312" s="4" t="s">
+      <c r="J313" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E313" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="s">
+      <c r="K313" s="4" t="s">
         <v>313</v>
       </c>
     </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E314" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E316" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="317" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="1" t="n">
+      <c r="A316" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E317" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I318" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="J317" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="K317" s="4" t="s">
+      <c r="J318" s="4" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E319" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1" t="s">
+      <c r="K318" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="1" t="n">
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E320" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I324" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="J323" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="K323" s="4" t="s">
+      <c r="J324" s="4" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="324" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="1" t="n">
+      <c r="K324" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I325" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="J324" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="K324" s="4" t="s">
+      <c r="J325" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="325" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="1" t="n">
+      <c r="K325" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I326" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="J325" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="K325" s="4" t="s">
+      <c r="J326" s="4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E327" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F327" s="1" t="s">
+      <c r="K326" s="4" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E328" s="1" t="s">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>324</v>
@@ -3986,338 +3989,346 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E329" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F329" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E333" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="334" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I334" s="1" t="n">
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E330" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E334" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I335" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="J334" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="K334" s="4" t="s">
+      <c r="J335" s="4" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E335" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="s">
+      <c r="K335" s="4" t="s">
         <v>328</v>
       </c>
     </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E336" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E338" s="1" t="s">
+      <c r="A338" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E339" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G338" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F340" s="8"/>
-    </row>
-    <row r="341" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I341" s="1" t="n">
+      <c r="G339" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F341" s="8"/>
+    </row>
+    <row r="342" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I342" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="J341" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="K341" s="4" t="s">
+      <c r="J342" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="342" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I342" s="1" t="n">
+      <c r="K342" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I343" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="J342" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="K342" s="4" t="s">
+      <c r="J343" s="5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B343" s="1" t="s">
+      <c r="K343" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="E343" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I343" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="J343" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="K343" s="4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B344" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I344" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="J344" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I344" s="1" t="n">
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B345" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I345" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="J344" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="K344" s="4" t="s">
+      <c r="J345" s="5" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J345" s="5"/>
-      <c r="K345" s="4"/>
+      <c r="K345" s="4" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="J346" s="5"/>
       <c r="K346" s="4"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E347" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F347" s="9" t="s">
-        <v>340</v>
+      <c r="A347" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="J347" s="5"/>
       <c r="K347" s="4"/>
     </row>
-    <row r="348" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I348" s="1" t="n">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E348" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F348" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="J348" s="5"/>
+      <c r="K348" s="4"/>
+    </row>
+    <row r="349" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I349" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="J348" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="K348" s="4" t="s">
+      <c r="J349" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G349" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I349" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="J349" s="5" t="s">
+      <c r="K349" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="K349" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G350" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I350" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="J350" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="K350" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G351" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I351" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="J350" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="K350" s="1" t="s">
+      <c r="J351" s="5" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="351" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G351" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I351" s="1" t="n">
+      <c r="K351" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G352" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I352" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="J351" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="K351" s="4" t="s">
+      <c r="J352" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G352" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I352" s="1" t="n">
+      <c r="K352" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G353" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I353" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="J352" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="K352" s="1" t="s">
+      <c r="J353" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="353" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I353" s="1" t="n">
+      <c r="K353" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I354" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="J353" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="K353" s="4" t="s">
+      <c r="J354" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G354" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I354" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="J354" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K354" s="1" t="s">
-        <v>344</v>
+      <c r="K354" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G355" s="1" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="I355" s="1" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J355" s="1" t="s">
         <v>344</v>
       </c>
       <c r="K355" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G356" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I356" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K356" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I357" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="J357" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I356" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="J356" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K356" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G357" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I357" s="1" t="n">
+      <c r="K357" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G358" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I358" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="J357" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="K357" s="1" t="s">
+      <c r="J358" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I358" s="1" t="n">
+      <c r="K358" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I359" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="J358" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="K358" s="1" t="s">
+      <c r="J359" s="10" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G359" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I359" s="1" t="n">
+      <c r="K359" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G360" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I360" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="J359" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="K359" s="4" t="s">
+      <c r="J360" s="5" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="360" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G360" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I360" s="1" t="n">
+      <c r="K360" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G361" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I361" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="J360" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="K360" s="4" t="s">
+      <c r="J361" s="5" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="361" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I361" s="1" t="n">
+      <c r="K361" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I362" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="J361" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="K361" s="4" t="s">
+      <c r="J362" s="11" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E362" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E364" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I370" s="1" t="n">
+      <c r="K362" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E363" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E365" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I371" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="J370" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K370" s="1" t="s">
+      <c r="J371" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E372" s="1" t="s">
-        <v>194</v>
+      <c r="K371" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E373" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
